--- a/Backend/dataset/elderlist_users.xlsx
+++ b/Backend/dataset/elderlist_users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -457,46 +457,46 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C2" t="str">
-        <v>abcd</v>
+        <v>testme</v>
       </c>
       <c r="D2" t="str">
-        <v>abcd</v>
+        <v>testme</v>
       </c>
       <c r="E2" t="str">
-        <v>abcd1234@gmail.com</v>
+        <v>testme</v>
       </c>
       <c r="F2">
-        <v>12312312312</v>
+        <v>68465431215</v>
       </c>
       <c r="G2" t="str">
         <v>2023-04-30T16:00:00.000Z</v>
       </c>
       <c r="H2" t="str">
-        <v>abcd st 1234</v>
+        <v xml:space="preserve">123 st </v>
       </c>
       <c r="I2">
-        <v>351351216815</v>
+        <v>543483124735</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-05-17T16:00:00.000Z</v>
+        <v>2023-05-08T16:00:00.000Z</v>
       </c>
       <c r="K2" t="str">
-        <v>2023-05-13T16:00:00.000Z</v>
+        <v>2023-05-25T16:00:00.000Z</v>
       </c>
       <c r="L2" t="str">
-        <v>1684697212262-bautista.png</v>
+        <v>1684806979024-mozo.jpg</v>
       </c>
       <c r="M2" t="str">
-        <v>abcd1234@gmail.com</v>
+        <v>testme12345@gmail.com</v>
       </c>
       <c r="N2" t="str">
-        <v>$2b$10$JyH.9deeUlMjzHM1bJ0RBuxunXl48qhFt/1IvanZSim3wv8OUrAp.</v>
+        <v>$2b$10$Dnr.BeiU7sm0CzHaPHB1quVY75MdAFZtNGK4XtSA2euxUcUAOlbjm</v>
       </c>
       <c r="O2" t="str">
         <v>seniorCitizen</v>
@@ -505,12 +505,118 @@
         <v>confirmed</v>
       </c>
       <c r="Q2" t="str">
+        <v>2023-05-22T16:00:00.000Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>144</v>
+      </c>
+      <c r="C3" t="str">
+        <v>abcd</v>
+      </c>
+      <c r="D3" t="str">
+        <v>abcd</v>
+      </c>
+      <c r="E3" t="str">
+        <v>abcd1234@gmail.com</v>
+      </c>
+      <c r="F3">
+        <v>12312312312</v>
+      </c>
+      <c r="G3" t="str">
+        <v>2023-04-30T16:00:00.000Z</v>
+      </c>
+      <c r="H3" t="str">
+        <v>abcd st 1234</v>
+      </c>
+      <c r="I3">
+        <v>351351216815</v>
+      </c>
+      <c r="J3" t="str">
+        <v>2023-05-17T16:00:00.000Z</v>
+      </c>
+      <c r="K3" t="str">
+        <v>2023-05-13T16:00:00.000Z</v>
+      </c>
+      <c r="L3" t="str">
+        <v>1684697212262-bautista.png</v>
+      </c>
+      <c r="M3" t="str">
+        <v>abcd1234@gmail.com</v>
+      </c>
+      <c r="N3" t="str">
+        <v>$2b$10$JyH.9deeUlMjzHM1bJ0RBuxunXl48qhFt/1IvanZSim3wv8OUrAp.</v>
+      </c>
+      <c r="O3" t="str">
+        <v>seniorCitizen</v>
+      </c>
+      <c r="P3" t="str">
+        <v>confirmed</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>2023-05-21T16:00:00.000Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>146</v>
+      </c>
+      <c r="C4" t="str">
+        <v>brendan govic</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Mozo</v>
+      </c>
+      <c r="E4" t="str">
+        <v>O</v>
+      </c>
+      <c r="F4">
+        <v>12321658798</v>
+      </c>
+      <c r="G4" t="str">
+        <v>2023-05-01T16:00:00.000Z</v>
+      </c>
+      <c r="H4" t="str">
+        <v>123 st 234 road</v>
+      </c>
+      <c r="I4">
+        <v>336548751321</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2023-05-10T16:00:00.000Z</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2023-05-17T16:00:00.000Z</v>
+      </c>
+      <c r="L4" t="str">
+        <v>1684726009876-mozo.jpg</v>
+      </c>
+      <c r="M4" t="str">
+        <v>testme123@gmail.com</v>
+      </c>
+      <c r="N4" t="str">
+        <v>$2b$10$BuyTznhgNIgm2R6wyLSD6OP0FoxdPdmLfvCQs.v9GjstT8F7cJcHC</v>
+      </c>
+      <c r="O4" t="str">
+        <v>seniorCitizen</v>
+      </c>
+      <c r="P4" t="str">
+        <v>confirmed</v>
+      </c>
+      <c r="Q4" t="str">
         <v>2023-05-21T16:00:00.000Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:Q4"/>
   </ignoredErrors>
 </worksheet>
 </file>